--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.080599999999992</v>
+        <v>5.898099999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.109899999999998</v>
+        <v>-7.134799999999996</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.178100000000002</v>
+        <v>-7.983899999999998</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.33919999999997</v>
+        <v>-20.35659999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.929099999999989</v>
+        <v>-7.689699999999993</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -618,13 +618,13 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.755300000000001</v>
+        <v>5.813399999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.007400000000002</v>
+        <v>-8.123699999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.0295</v>
+        <v>12.16899999999999</v>
       </c>
     </row>
     <row r="13">
@@ -729,12 +729,12 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.79450000000001</v>
+        <v>13.3503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.81730000000001</v>
+        <v>-22.87180000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -763,12 +763,12 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.179</v>
+        <v>12.95459999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.05810000000003</v>
+        <v>-22.13470000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.41580000000001</v>
+        <v>-12.6984</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.992100000000002</v>
+        <v>-7.846699999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
